--- a/现金流量表/300055.xlsx
+++ b/现金流量表/300055.xlsx
@@ -724,14 +724,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>004</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -744,56 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>64522971.84</v>
+        <v>22981720.11</v>
       </c>
       <c r="P2" t="n">
-        <v>42.8544217675</v>
+        <v>11.2710424161</v>
       </c>
       <c r="Q2" t="n">
-        <v>980765874.9</v>
+        <v>317072528.57</v>
       </c>
       <c r="R2" t="n">
-        <v>651.398304504</v>
+        <v>155.503500233</v>
       </c>
       <c r="S2" t="n">
-        <v>134205996.82</v>
+        <v>69435306.92</v>
       </c>
       <c r="T2" t="n">
-        <v>89.1360119883</v>
+        <v>34.0535123447</v>
       </c>
       <c r="U2" t="n">
-        <v>-276540228.19</v>
+        <v>-190846024.58</v>
       </c>
       <c r="V2" t="n">
-        <v>-183.6705786572</v>
+        <v>-93.59759094109999</v>
       </c>
       <c r="W2" t="n">
-        <v>4741597.61</v>
+        <v>2254928.47</v>
       </c>
       <c r="X2" t="n">
-        <v>3.1492415497</v>
+        <v>1.1058960908</v>
       </c>
       <c r="Y2" t="n">
-        <v>380538633.91</v>
+        <v>160608001.47</v>
       </c>
       <c r="Z2" t="n">
-        <v>252.7435214368</v>
+        <v>78.76780276949999</v>
       </c>
       <c r="AA2" t="n">
-        <v>61425821.82</v>
+        <v>-36036268.89</v>
       </c>
       <c r="AB2" t="n">
-        <v>40.7973780597</v>
+        <v>-17.673451475</v>
       </c>
       <c r="AC2" t="n">
-        <v>-150563160.53</v>
+        <v>-203900573.36</v>
       </c>
       <c r="AD2" t="n">
-        <v>71.7216579153</v>
+        <v>-159.3269056566</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
